--- a/data/fractionation/Quant/230330 Batch 142 ABCD Quant.xlsx
+++ b/data/fractionation/Quant/230330 Batch 142 ABCD Quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SIP Pipeline\Mike\230322 Batch 142 Water yr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71286B81-6C80-4EB7-92D4-46E43E6D4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BC9F4-722A-4CF1-85F2-C03CF9B37248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="10" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -465,8 +465,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +510,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,10 +525,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -534,6 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,7 +555,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7948,9 +7963,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7988,9 +8003,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8023,26 +8038,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8075,26 +8073,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8274,13 +8255,13 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -8573,7 +8554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8866,12 +8847,12 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -8903,7 +8884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8945,7 +8926,7 @@
         <v>-1.2453053963233842</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8988,7 +8969,7 @@
         <v>-0.25696778019371419</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -9031,7 +9012,7 @@
         <v>0.19766752322593398</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9074,7 +9055,7 @@
         <v>-0.25696778019371419</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9117,7 +9098,7 @@
         <v>1.0871713777426371</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9160,7 +9141,7 @@
         <v>7.7683336627792059</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9199,7 +9180,7 @@
         <v>26.092113065823284</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9233,7 +9214,7 @@
         <v>144.59379323977072</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -9260,7 +9241,7 @@
         <v>827.13975093892077</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -9287,7 +9268,7 @@
         <v>1214.5285629571063</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -9314,7 +9295,7 @@
         <v>942.97291954931802</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -9341,7 +9322,7 @@
         <v>500.98833761612974</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -9368,7 +9349,7 @@
         <v>185.9458390986361</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9395,7 +9376,7 @@
         <v>96.461751334255794</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9422,7 +9403,7 @@
         <v>53.528365289582922</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9449,7 +9430,7 @@
         <v>25.321209725242145</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9476,7 +9457,7 @@
         <v>16.86103973117217</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9503,7 +9484,7 @@
         <v>14.014627396718719</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9530,7 +9511,7 @@
         <v>12.808855505040523</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9557,7 +9538,7 @@
         <v>9.7450088950385467</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9584,7 +9565,7 @@
         <v>6.384661000197668</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -9611,7 +9592,7 @@
         <v>3.6766159320023721</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -9638,7 +9619,7 @@
         <v>-1.3836726625815379</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -9665,7 +9646,7 @@
         <v>-1.3243724056137576</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -9692,7 +9673,7 @@
         <v>-1.6011069381300653</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -9719,7 +9700,7 @@
         <v>0.81043684522632942</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -9746,7 +9727,7 @@
         <v>-0.39533504645186796</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -9773,7 +9754,7 @@
         <v>1.8976082229689664</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9800,7 +9781,7 @@
         <v>13.480925084008696</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9827,7 +9808,7 @@
         <v>235.71852144692627</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -9854,7 +9835,7 @@
         <v>980.86578375172962</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9881,7 +9862,7 @@
         <v>1088.0213480925086</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9908,7 +9889,7 @@
         <v>627.04091717730773</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9935,7 +9916,7 @@
         <v>319.21328325756076</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -9962,7 +9943,7 @@
         <v>129.74896224550307</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -9989,7 +9970,7 @@
         <v>78.019371417276147</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -10016,7 +9997,7 @@
         <v>44.139157936351062</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -10043,7 +10024,7 @@
         <v>24.253805099822099</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -10070,7 +10051,7 @@
         <v>14.963431508203202</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -10097,7 +10078,7 @@
         <v>10.575212492587468</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10124,7 +10105,7 @@
         <v>30.341964815180869</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -10151,7 +10132,7 @@
         <v>11.10891480529749</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -10178,7 +10159,7 @@
         <v>8.3415694801344138</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -10205,7 +10186,7 @@
         <v>2.826645582130856</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10232,7 +10213,7 @@
         <v>-0.75113658825854912</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10259,7 +10240,7 @@
         <v>-1.1662383870330104</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -10286,7 +10267,7 @@
         <v>-0.57323581735520857</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -10313,7 +10294,7 @@
         <v>-0.98833761612966986</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -10340,7 +10321,7 @@
         <v>-0.71160308361336233</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10367,7 +10348,7 @@
         <v>0.69183633129076894</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -10394,7 +10375,7 @@
         <v>11.622850365684918</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10421,7 +10402,7 @@
         <v>138.48586677208937</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10429,7 @@
         <v>801.18600513935564</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -10475,7 +10456,7 @@
         <v>1063.6094089741055</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -10502,7 +10483,7 @@
         <v>816.48547143704286</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -10529,7 +10510,7 @@
         <v>614.39019569084803</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -10556,7 +10537,7 @@
         <v>130.69776635698756</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -10583,7 +10564,7 @@
         <v>73.295117612176327</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -10610,7 +10591,7 @@
         <v>36.706859063055944</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -10637,7 +10618,7 @@
         <v>22.356196876853133</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -10664,7 +10645,7 @@
         <v>12.275153192330501</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -10691,7 +10672,7 @@
         <v>12.927456018976082</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -10718,7 +10699,7 @@
         <v>14.963431508203202</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -10745,7 +10726,7 @@
         <v>11.089148052974897</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -10772,7 +10753,7 @@
         <v>5.1986558608420639</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -10799,7 +10780,7 @@
         <v>2.5894445542597349</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -10826,7 +10807,7 @@
         <v>-1.6999406997430322</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -10853,7 +10834,7 @@
         <v>-0.35580154180668117</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -10880,7 +10861,7 @@
         <v>-1.1662383870330104</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -10907,7 +10888,7 @@
         <v>3.9533504645186804E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -10934,7 +10915,7 @@
         <v>1.3046056532911643</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -10961,7 +10942,7 @@
         <v>4.0521842261316463</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -10988,7 +10969,7 @@
         <v>13.02628978058905</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -11015,7 +10996,7 @@
         <v>144.3170587072544</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -11042,7 +11023,7 @@
         <v>841.51017987744626</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -11069,7 +11050,7 @@
         <v>1141.2334453449298</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -11096,7 +11077,7 @@
         <v>786.34117414508796</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -11123,7 +11104,7 @@
         <v>377.84147064637284</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -11150,7 +11131,7 @@
         <v>153.76556631745405</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -11177,7 +11158,7 @@
         <v>73.492785135402258</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -11204,7 +11185,7 @@
         <v>39.296303617315679</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -11231,7 +11212,7 @@
         <v>27.179284443565926</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -11258,7 +11239,7 @@
         <v>12.78908875271793</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -11285,7 +11266,7 @@
         <v>12.808855505040523</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -11312,7 +11293,7 @@
         <v>18.877248468076694</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -11339,7 +11320,7 @@
         <v>10.041510179877447</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -11366,7 +11347,7 @@
         <v>6.4834947618106353</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -11393,7 +11374,7 @@
         <v>5.6730579165843054</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -11401,7 +11382,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -11409,7 +11390,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -11417,7 +11398,7 @@
         <v>4986</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -11425,7 +11406,7 @@
         <v>34533</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -11433,7 +11414,7 @@
         <v>10063</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -11441,7 +11422,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -11449,7 +11430,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -11473,13 +11454,13 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -11772,7 +11753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12065,12 +12046,12 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="17.350000000000001" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:98" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="N7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12102,7 +12083,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -12141,7 +12122,7 @@
         <v>-1.1011699931176875</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -12180,7 +12161,7 @@
         <v>-0.27529249827942187</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -12219,7 +12200,7 @@
         <v>-5.8991249631304692E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -12258,7 +12239,7 @@
         <v>-0.55058499655884374</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12297,7 +12278,7 @@
         <v>0.92419624422377344</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -12336,7 +12317,7 @@
         <v>7.7081899518238126</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -12375,7 +12356,7 @@
         <v>25.425228591092321</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -12409,7 +12390,7 @@
         <v>139.29800412938746</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12436,7 +12417,7 @@
         <v>807.92449120047195</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -12463,7 +12444,7 @@
         <v>1208.8880149444499</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -12490,7 +12471,7 @@
         <v>942.12958411169006</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -12517,7 +12498,7 @@
         <v>503.31334185429165</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12544,7 +12525,7 @@
         <v>188.31973257300166</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -12571,7 +12552,7 @@
         <v>95.152885655294455</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -12598,7 +12579,7 @@
         <v>52.954478419034515</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -12625,7 +12606,7 @@
         <v>26.487071084455806</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12652,7 +12633,7 @@
         <v>17.205781142463866</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -12679,7 +12660,7 @@
         <v>14.295546160652837</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -12706,7 +12687,7 @@
         <v>12.506144921836595</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -12733,7 +12714,7 @@
         <v>9.202634942483531</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12760,7 +12741,7 @@
         <v>6.0564349621472813</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -12787,7 +12768,7 @@
         <v>3.4411562284927735</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -12814,7 +12795,7 @@
         <v>-1.7304099891849376</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -12841,7 +12822,7 @@
         <v>-1.4354537410284141</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -12868,7 +12849,7 @@
         <v>-1.9467112378330547</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -12895,7 +12876,7 @@
         <v>-1.8287287385704454</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -12922,7 +12903,7 @@
         <v>-0.47192999705043753</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -12949,7 +12930,7 @@
         <v>2.516959984269</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12976,7 +12957,7 @@
         <v>13.33202241667486</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -13003,7 +12984,7 @@
         <v>236.53524727165467</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13030,7 +13011,7 @@
         <v>993.3733162914167</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13057,7 +13038,7 @@
         <v>1109.2517943171763</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -13084,7 +13065,7 @@
         <v>632.22888604856951</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -13111,7 +13092,7 @@
         <v>322.91810048176188</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -13138,7 +13119,7 @@
         <v>130.86225543211089</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -13165,7 +13146,7 @@
         <v>80.287090748205685</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13192,7 +13173,7 @@
         <v>43.771507226428085</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -13219,7 +13200,7 @@
         <v>26.526398584210007</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -13246,7 +13227,7 @@
         <v>14.747812407826173</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -13273,7 +13254,7 @@
         <v>9.910529938059188</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -13300,7 +13281,7 @@
         <v>12.604463671222101</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13327,7 +13308,7 @@
         <v>12.191524923802969</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -13354,7 +13335,7 @@
         <v>10.854389932160062</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -13381,7 +13362,7 @@
         <v>2.4972962343918983</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -13408,7 +13389,7 @@
         <v>-1.1798249926260937</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -13435,7 +13416,7 @@
         <v>-1.5337724904139218</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -13462,7 +13443,7 @@
         <v>-0.60957624619014839</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -13489,7 +13470,7 @@
         <v>-1.2584799921345</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -13516,7 +13497,7 @@
         <v>-0.94385999410087507</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -13543,7 +13524,7 @@
         <v>0.35394749778782814</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -13570,7 +13551,7 @@
         <v>11.267328679579196</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -13597,7 +13578,7 @@
         <v>144.15495034903157</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -13624,7 +13605,7 @@
         <v>806.11542621177864</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13651,7 +13632,7 @@
         <v>1107.9343230754105</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -13678,7 +13659,7 @@
         <v>797.83698751351881</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -13705,7 +13686,7 @@
         <v>607.60987120243828</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -13732,7 +13713,7 @@
         <v>129.91839543801004</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -13759,7 +13740,7 @@
         <v>71.47773080326418</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -13786,7 +13767,7 @@
         <v>37.125159767967752</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -13813,7 +13794,7 @@
         <v>22.161046111493462</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -13840,7 +13821,7 @@
         <v>12.112869924294563</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -13867,7 +13848,7 @@
         <v>12.604463671222101</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -13894,7 +13875,7 @@
         <v>15.082096155736899</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -13921,7 +13902,7 @@
         <v>11.798249926260937</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -13948,7 +13929,7 @@
         <v>5.4468587159571324</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -13975,7 +13956,7 @@
         <v>2.8905712319339298</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -14002,7 +13983,7 @@
         <v>-2.0057024874643594</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -14029,7 +14010,7 @@
         <v>-0.41293874741913283</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -14056,7 +14037,7 @@
         <v>-1.6320912397994296</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -14083,7 +14064,7 @@
         <v>-0.2163012486481172</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -14110,7 +14091,7 @@
         <v>1.0028512437321797</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -14137,7 +14118,7 @@
         <v>3.6967849768950938</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -14164,7 +14145,7 @@
         <v>15.652344902172842</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -14191,7 +14172,7 @@
         <v>143.07344410579097</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -14218,7 +14199,7 @@
         <v>844.08612722446162</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -14245,7 +14226,7 @@
         <v>1145.2167928423951</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -14272,7 +14253,7 @@
         <v>805.84013371349909</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14299,7 +14280,7 @@
         <v>375.42031265362306</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -14326,7 +14307,7 @@
         <v>156.09084652443221</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -14353,7 +14334,7 @@
         <v>76.039720774751743</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -14380,7 +14361,7 @@
         <v>39.858421000884867</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -14407,7 +14388,7 @@
         <v>26.78202733261233</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -14434,7 +14415,7 @@
         <v>14.334873660407039</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -14461,7 +14442,7 @@
         <v>13.528659915445875</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -14488,7 +14469,7 @@
         <v>14.86579490708878</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -14515,7 +14496,7 @@
         <v>10.18582243633861</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -14542,7 +14523,7 @@
         <v>6.6266837085832266</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -14569,7 +14550,7 @@
         <v>4.6996362206272737</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -14577,7 +14558,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -14585,7 +14566,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -14593,7 +14574,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -14601,7 +14582,7 @@
         <v>34321</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -14609,7 +14590,7 @@
         <v>10028</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -14617,7 +14598,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -14625,7 +14606,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -14648,13 +14629,13 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -14947,7 +14928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -15240,12 +15221,12 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -15277,7 +15258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -15316,7 +15297,7 @@
         <v>-1.5043547110055424</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15355,7 +15336,7 @@
         <v>-0.5740300870942201</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -15390,11 +15371,11 @@
         <v>-8.4125098970704668E-3</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O10:O73" si="2">N11*40</f>
+        <f t="shared" ref="O11:O73" si="2">N11*40</f>
         <v>-0.33650039588281866</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15433,7 +15414,7 @@
         <v>-1.1282660332541568</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15472,7 +15453,7 @@
         <v>0.49485352335708632</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -15511,7 +15492,7 @@
         <v>7.4228028503562946</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15550,7 +15531,7 @@
         <v>24.386381631037214</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15584,7 +15565,7 @@
         <v>136.3618368962787</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -15611,7 +15592,7 @@
         <v>782.30403800475062</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -15638,7 +15619,7 @@
         <v>1216.963578780681</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -15665,7 +15646,7 @@
         <v>909.20427553444188</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -15692,7 +15673,7 @@
         <v>484.79809976247031</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -15719,7 +15700,7 @@
         <v>179.77038796516234</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -15746,7 +15727,7 @@
         <v>92.042755344418055</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -15773,7 +15754,7 @@
         <v>51.24703087885986</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -15800,7 +15781,7 @@
         <v>24.762470308788597</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15827,7 +15808,7 @@
         <v>16.448931116389549</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -15854,7 +15835,7 @@
         <v>14.113222486144101</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -15881,7 +15862,7 @@
         <v>12.252573238321459</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -15908,7 +15889,7 @@
         <v>8.6302454473475851</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -15935,7 +15916,7 @@
         <v>5.6017418844022169</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -15962,7 +15943,7 @@
         <v>2.7513855898654</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -15989,7 +15970,7 @@
         <v>-1.9398258115597784</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -16016,7 +15997,7 @@
         <v>-1.8210609659540777</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -16043,7 +16024,7 @@
         <v>-2.2169437846397466</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -16070,7 +16051,7 @@
         <v>-1.8606492478226444</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -16097,7 +16078,7 @@
         <v>-0.63341250989707054</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -16124,7 +16105,7 @@
         <v>1.4053840063341252</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -16151,7 +16132,7 @@
         <v>13.341250989707047</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16178,7 +16159,7 @@
         <v>228.97862232779096</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16205,7 +16186,7 @@
         <v>966.52810768012671</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -16232,7 +16213,7 @@
         <v>1079.5922406967538</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -16259,7 +16240,7 @@
         <v>607.7197149643705</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16286,7 +16267,7 @@
         <v>311.24307205067299</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -16313,7 +16294,7 @@
         <v>126.40538400633412</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -16340,7 +16321,7 @@
         <v>76.722090261282659</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -16367,7 +16348,7 @@
         <v>42.517814726840861</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -16394,7 +16375,7 @@
         <v>28.62232779097387</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -16421,7 +16402,7 @@
         <v>13.81631037212985</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -16448,7 +16429,7 @@
         <v>9.4220110847189229</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -16475,7 +16456,7 @@
         <v>12.173396674584323</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -16502,7 +16483,7 @@
         <v>9.8574821852731596</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -16529,7 +16510,7 @@
         <v>7.5217735550277123</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -16556,7 +16537,7 @@
         <v>1.920031670625495</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16583,7 +16564,7 @@
         <v>-1.3262074425969914</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -16610,7 +16591,7 @@
         <v>-1.6825019794140936</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -16637,7 +16618,7 @@
         <v>2.8107680126682504</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -16664,7 +16645,7 @@
         <v>-1.5241488519398259</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -16691,7 +16672,7 @@
         <v>-0.98970704671417264</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -16718,7 +16699,7 @@
         <v>3.9588281868566909E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -16745,7 +16726,7 @@
         <v>10.728424386381633</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -16772,7 +16753,7 @@
         <v>136.28266033254158</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16799,7 +16780,7 @@
         <v>764.84560570071267</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -16826,7 +16807,7 @@
         <v>1049.1092636579574</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -16853,7 +16834,7 @@
         <v>764.62787015043546</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -16880,7 +16861,7 @@
         <v>587.01504354711005</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -16907,7 +16888,7 @@
         <v>125.57403008709421</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -16934,7 +16915,7 @@
         <v>68.566904196357882</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -16961,7 +16942,7 @@
         <v>34.699129057798892</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -16988,7 +16969,7 @@
         <v>21.239113222486147</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -17015,7 +16996,7 @@
         <v>11.441013460015837</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -17042,7 +17023,7 @@
         <v>12.034837688044339</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -17069,7 +17050,7 @@
         <v>14.271575613618371</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -17096,7 +17077,7 @@
         <v>10.273159144893111</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -17123,7 +17104,7 @@
         <v>4.6318289786223277</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -17150,7 +17131,7 @@
         <v>2.1773555027711797</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -17177,7 +17158,7 @@
         <v>-2.3159144893111638</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -17204,7 +17185,7 @@
         <v>-0.65320665083135387</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -17231,7 +17212,7 @@
         <v>-1.920031670625495</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -17258,7 +17239,7 @@
         <v>-0.25732383214568488</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -17285,7 +17266,7 @@
         <v>0.98970704671417264</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -17312,7 +17293,7 @@
         <v>3.6223277909738716</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -17339,7 +17320,7 @@
         <v>11.718131433095804</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -17366,7 +17347,7 @@
         <v>138.28186856690419</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -17393,7 +17374,7 @@
         <v>801.42517814726841</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -17420,7 +17401,7 @@
         <v>1096.080760095012</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -17447,7 +17428,7 @@
         <v>770.50673000791767</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -17474,7 +17455,7 @@
         <v>357.22486144101345</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -17501,7 +17482,7 @@
         <v>149.01029295328581</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -17528,7 +17509,7 @@
         <v>73.099762470308789</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -17555,7 +17536,7 @@
         <v>37.727632620744259</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -17582,7 +17563,7 @@
         <v>25.039588281868568</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -17609,7 +17590,7 @@
         <v>14.726840855106889</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -17636,7 +17617,7 @@
         <v>12.787015043547109</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -17663,7 +17644,7 @@
         <v>13.8756927949327</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -17690,7 +17671,7 @@
         <v>9.4418052256532068</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -17717,7 +17698,7 @@
         <v>5.8194774346793352</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -17744,7 +17725,7 @@
         <v>3.7410926365795727</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -17752,7 +17733,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -17760,7 +17741,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -17768,7 +17749,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -17776,7 +17757,7 @@
         <v>33025</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -17784,7 +17765,7 @@
         <v>9713</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -17792,7 +17773,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -17800,7 +17781,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -17819,23 +17800,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.41015625" customWidth="1"/>
-    <col min="3" max="3" width="13.1171875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.1171875" customWidth="1"/>
-    <col min="7" max="8" width="14.703125" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.07421875" customWidth="1"/>
+    <col min="7" max="8" width="14.69140625" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -17872,11 +17853,11 @@
       <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -17917,7 +17898,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -17955,7 +17936,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -17993,7 +17974,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -18031,7 +18012,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -18069,7 +18050,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -18107,7 +18088,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -18145,7 +18126,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -18183,7 +18164,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -18221,7 +18202,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -18259,7 +18240,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -18297,7 +18278,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -18335,7 +18316,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -18370,7 +18351,7 @@
         <v>184.67865321226671</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -18405,7 +18386,7 @@
         <v>94.552464111322777</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -18440,7 +18421,7 @@
         <v>52.576624862492423</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -18475,7 +18456,7 @@
         <v>25.523583706162182</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -18510,7 +18491,7 @@
         <v>16.838583996675194</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -18545,7 +18526,7 @@
         <v>14.141132014505217</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -18580,7 +18561,7 @@
         <v>12.522524555066193</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -18615,7 +18596,7 @@
         <v>9.1926297616232198</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -18650,7 +18631,7 @@
         <v>6.0142792822490554</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -18693,7 +18674,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18729,7 +18710,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18764,7 +18745,7 @@
         <v>-1.5269623708654165</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18799,7 +18780,7 @@
         <v>-1.9215873202009557</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18834,7 +18815,7 @@
         <v>-0.95964704705558679</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18869,7 +18850,7 @@
         <v>-0.50022585113312534</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18904,7 +18885,7 @@
         <v>1.939984071190697</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18939,7 +18920,7 @@
         <v>13.384732830130204</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18974,7 +18955,7 @@
         <v>233.74413034879066</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19009,7 +18990,7 @@
         <v>980.25573590775764</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19044,7 +19025,7 @@
         <v>1092.2884610354795</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19079,7 +19060,7 @@
         <v>622.32983939674932</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19114,7 +19095,7 @@
         <v>317.79148526333188</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19149,7 +19130,7 @@
         <v>129.00553389464937</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19184,7 +19165,7 @@
         <v>78.342850808921483</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19219,7 +19200,7 @@
         <v>43.476159963206669</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19254,7 +19235,7 @@
         <v>26.467510491668659</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19289,7 +19270,7 @@
         <v>14.509184762719743</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19324,7 +19305,7 @@
         <v>9.9692511717885264</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19334,32 +19315,32 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="13">
         <f>'Plate 1'!N49</f>
         <v>0.75854912037952171</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="13">
         <f>'Plate 2'!N49</f>
         <v>0.31511159178055254</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="13">
         <f>'Plate 3'!N49</f>
         <v>0.30433491686460806</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>0.45933187634156081</v>
+      <c r="G42" s="13">
+        <f>AVERAGE(E42:F42)</f>
+        <v>0.3097232543225803</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
-        <v>0.25918575101231045</v>
+        <f>STDEV(E42:F42)</f>
+        <v>7.6202599117073042E-3</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="2"/>
-        <v>18.373275053662432</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+        <v>12.388930172903212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19394,7 +19375,7 @@
         <v>11.052640638124538</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19429,7 +19410,7 @@
         <v>8.9059109891073955</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19465,14 +19446,14 @@
       </c>
       <c r="J45">
         <f>SUM(I24:I45)</f>
-        <v>3597.65828571263</v>
+        <v>3591.6739408318708</v>
       </c>
       <c r="K45" t="e">
         <f>J45/L24*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -19508,7 +19489,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -19543,7 +19524,7 @@
         <v>-1.4608376189536754</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -19578,7 +19559,7 @@
         <v>0.54265198304096451</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -19613,7 +19594,7 @@
         <v>-1.2569888200679988</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -19648,7 +19629,7 @@
         <v>-0.88172337480946994</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -19683,7 +19664,7 @@
         <v>0.36179070364905469</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -19718,7 +19699,7 @@
         <v>11.206201143881916</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -19753,7 +19734,7 @@
         <v>139.64115915122085</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -19788,7 +19769,7 @@
         <v>790.71567901728235</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -19823,7 +19804,7 @@
         <v>1073.5509985691576</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -19858,7 +19839,7 @@
         <v>792.98344303366559</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -19893,7 +19874,7 @@
         <v>603.00503681346549</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -19928,7 +19909,7 @@
         <v>128.73006396069727</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -19963,7 +19944,7 @@
         <v>71.113250870599458</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -19998,7 +19979,7 @@
         <v>36.177049296274198</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -20033,7 +20014,7 @@
         <v>21.918785403610915</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -20068,7 +20049,7 @@
         <v>11.943012192213633</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -20103,7 +20084,7 @@
         <v>12.522252459414174</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -20138,7 +20119,7 @@
         <v>14.772367759186158</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -20173,7 +20154,7 @@
         <v>11.053519041376315</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -20208,7 +20189,7 @@
         <v>5.092447851807175</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -20251,7 +20232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20287,7 +20268,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20322,7 +20303,7 @@
         <v>-0.47398231335238927</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20357,7 +20338,7 @@
         <v>-1.5727870991526451</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20392,7 +20373,7 @@
         <v>-0.14469719204953843</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20427,7 +20408,7 @@
         <v>1.0990546479125056</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20462,7 +20443,7 @@
         <v>3.7904323313335375</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20497,7 +20478,7 @@
         <v>13.465588705285898</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20532,7 +20513,7 @@
         <v>141.89079045998318</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20567,7 +20548,7 @@
         <v>829.00716174972547</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20602,7 +20583,7 @@
         <v>1127.5103327607787</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20637,7 +20618,7 @@
         <v>787.56267928883494</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20672,7 +20653,7 @@
         <v>370.16221491366969</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20707,7 +20688,7 @@
         <v>152.9555685983907</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20742,7 +20723,7 @@
         <v>74.210756126820925</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20777,7 +20758,7 @@
         <v>38.96078574631494</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20812,7 +20793,7 @@
         <v>26.33363335268227</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20847,7 +20828,7 @@
         <v>13.950267756077288</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20882,7 +20863,7 @@
         <v>13.041510154677836</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20917,7 +20898,7 @@
         <v>15.872912056699391</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20952,7 +20933,7 @@
         <v>9.8897126139564211</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20987,7 +20968,7 @@
         <v>6.3098853016910663</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
